--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\State Models\eps-maryland\InputData\trans\VSbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\Starter Pkg - ACII\InputData\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF230E39-7A45-46E2-9F8D-6933CEE91E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A98F18-B88B-4A3A-93AE-08ADDA5EE2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="3540" windowWidth="17505" windowHeight="9735" activeTab="1" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1924,9 +1924,9 @@
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.1796875" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2045,18 +2045,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F6402-DD66-4CAC-8910-748EA4AEB83B}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="4" customWidth="1"/>
-    <col min="2" max="16" width="9.81640625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="105" t="s">
         <v>76</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="39.65" customHeight="1">
+    <row r="63" spans="1:16" ht="39.6" customHeight="1">
       <c r="A63" s="104" t="s">
         <v>6</v>
       </c>
@@ -5158,13 +5158,13 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7265625" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5198,21 +5198,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>'Table MV-1'!G10/'Table MV-1'!$G$61</f>
-        <v>5.5878521842202787E-3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>'Table MV-1'!M10/'Table MV-1'!$M$61</f>
-        <v>1.3796718114729099E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5223,8 +5221,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>'Table MV-1'!G11/'Table MV-1'!$G$61</f>
-        <v>8.5645956308639404E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5236,8 +5233,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>'Table MV-1'!M11/'Table MV-1'!$M$61</f>
-        <v>3.2157240392212427E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5248,8 +5244,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>'Table MV-1'!G12/'Table MV-1'!$G$61</f>
-        <v>8.4314569052797456E-3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5261,8 +5256,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>'Table MV-1'!M12/'Table MV-1'!$M$61</f>
-        <v>1.4537940044235568E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5273,8 +5267,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>'Table MV-1'!G13/'Table MV-1'!$G$61</f>
-        <v>1.1966588141313841E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5286,8 +5279,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>'Table MV-1'!M13/'Table MV-1'!$M$61</f>
-        <v>2.0388346017237942E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5298,8 +5290,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Table MV-1'!G14/'Table MV-1'!$G$61</f>
-        <v>0.10017993599405446</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5311,8 +5302,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Table MV-1'!M14/'Table MV-1'!$M$61</f>
-        <v>9.4309653776233349E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5323,8 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Table MV-1'!G15/'Table MV-1'!$G$61</f>
-        <v>1.3631815783695276E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5336,8 +5325,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Table MV-1'!M15/'Table MV-1'!$M$61</f>
-        <v>2.1503721119001361E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5348,8 +5336,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>'Table MV-1'!G16/'Table MV-1'!$G$61</f>
-        <v>1.169732997240849E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5361,8 +5348,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>'Table MV-1'!M16/'Table MV-1'!$M$61</f>
-        <v>9.7199374650282049E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5373,8 +5359,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>'Table MV-1'!G17/'Table MV-1'!$G$61</f>
-        <v>3.8341965823090428E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -5386,8 +5371,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>'Table MV-1'!M17/'Table MV-1'!$M$61</f>
-        <v>4.8306104364239793E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5398,8 +5382,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f>'Table MV-1'!G18/'Table MV-1'!$G$61</f>
-        <v>5.1000080479378894E-3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5411,8 +5394,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>'Table MV-1'!M18/'Table MV-1'!$M$61</f>
-        <v>4.2830692087308811E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5423,8 +5405,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f>'Table MV-1'!G19/'Table MV-1'!$G$61</f>
-        <v>5.9786242795356839E-2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5436,8 +5417,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f>'Table MV-1'!M19/'Table MV-1'!$M$61</f>
-        <v>7.4455640755318714E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5448,8 +5428,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>'Table MV-1'!G20/'Table MV-1'!$G$61</f>
-        <v>3.6664815309761158E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5461,8 +5440,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>'Table MV-1'!M20/'Table MV-1'!$M$61</f>
-        <v>2.4934379105058271E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5473,8 +5451,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>'Table MV-1'!G21/'Table MV-1'!$G$61</f>
-        <v>2.8664568903761568E-3</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5486,8 +5463,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>'Table MV-1'!M21/'Table MV-1'!$M$61</f>
-        <v>4.4403672368620124E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5498,8 +5474,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f>'Table MV-1'!G22/'Table MV-1'!$G$61</f>
-        <v>3.782530808201743E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5511,8 +5486,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f>'Table MV-1'!M22/'Table MV-1'!$M$61</f>
-        <v>7.1114318443253836E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5523,8 +5497,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>'Table MV-1'!G23/'Table MV-1'!$G$61</f>
-        <v>3.2598122743969261E-2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5536,8 +5509,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>'Table MV-1'!M23/'Table MV-1'!$M$61</f>
-        <v>3.3659616673110682E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5548,8 +5520,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>'Table MV-1'!G24/'Table MV-1'!$G$61</f>
-        <v>2.0735859723449008E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5561,8 +5532,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>'Table MV-1'!M24/'Table MV-1'!$M$61</f>
-        <v>2.519458126304313E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5573,8 +5543,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f>'Table MV-1'!G25/'Table MV-1'!$G$61</f>
-        <v>9.1140412670434948E-3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5586,8 +5555,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f>'Table MV-1'!M25/'Table MV-1'!$M$61</f>
-        <v>2.3030832815010314E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5598,8 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f>'Table MV-1'!G26/'Table MV-1'!$G$61</f>
-        <v>6.5585725938901249E-3</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5611,8 +5578,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f>'Table MV-1'!M26/'Table MV-1'!$M$61</f>
-        <v>1.0883942873198577E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5623,8 +5589,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>'Table MV-1'!G27/'Table MV-1'!$G$61</f>
-        <v>1.0917375497904058E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5636,8 +5601,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f>'Table MV-1'!M27/'Table MV-1'!$M$61</f>
-        <v>1.166599024512076E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5648,8 +5612,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>'Table MV-1'!G28/'Table MV-1'!$G$61</f>
-        <v>2.9889643893651965E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5661,8 +5624,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>'Table MV-1'!M28/'Table MV-1'!$M$61</f>
-        <v>1.2186394561090472E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5673,8 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>'Table MV-1'!G29/'Table MV-1'!$G$61</f>
-        <v>4.5932860326547567E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5686,8 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f>'Table MV-1'!M29/'Table MV-1'!$M$61</f>
-        <v>4.6036690065248661E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5698,8 +5658,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>'Table MV-1'!G30/'Table MV-1'!$G$61</f>
-        <v>2.2395125930356523E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5711,8 +5670,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>'Table MV-1'!M30/'Table MV-1'!$M$61</f>
-        <v>1.3514422187907504E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5723,8 +5681,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>'Table MV-1'!G31/'Table MV-1'!$G$61</f>
-        <v>1.3663610106222844E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5736,8 +5693,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>'Table MV-1'!M31/'Table MV-1'!$M$61</f>
-        <v>1.6585095831722331E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5748,8 +5704,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>'Table MV-1'!G32/'Table MV-1'!$G$61</f>
-        <v>8.8845260012976063E-3</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5761,8 +5716,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>'Table MV-1'!M32/'Table MV-1'!$M$61</f>
-        <v>2.8515490853900149E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5773,8 +5727,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>'Table MV-1'!G33/'Table MV-1'!$G$61</f>
-        <v>1.9068644935909602E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5786,8 +5739,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>'Table MV-1'!M33/'Table MV-1'!$M$61</f>
-        <v>2.9294896579548375E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5798,8 +5750,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f>'Table MV-1'!G34/'Table MV-1'!$G$61</f>
-        <v>7.3385270683945557E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5811,8 +5762,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f>'Table MV-1'!M34/'Table MV-1'!$M$61</f>
-        <v>3.6710477969870824E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5823,8 +5773,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f>'Table MV-1'!G35/'Table MV-1'!$G$61</f>
-        <v>3.3533074540795592E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5836,8 +5785,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>'Table MV-1'!M35/'Table MV-1'!$M$61</f>
-        <v>1.5214201490368798E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5848,8 +5796,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f>'Table MV-1'!G36/'Table MV-1'!$G$61</f>
-        <v>5.1616095478350553E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5861,8 +5808,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f>'Table MV-1'!M36/'Table MV-1'!$M$61</f>
-        <v>4.2647577970591273E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5873,8 +5819,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <f>'Table MV-1'!G37/'Table MV-1'!$G$61</f>
-        <v>1.7177876318098223E-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5886,8 +5831,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>'Table MV-1'!M37/'Table MV-1'!$M$61</f>
-        <v>6.0485294435492195E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5898,8 +5842,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f>'Table MV-1'!G38/'Table MV-1'!$G$61</f>
-        <v>3.1883744059677944E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5911,8 +5854,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f>'Table MV-1'!M38/'Table MV-1'!$M$61</f>
-        <v>8.327909953483011E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5923,8 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f>'Table MV-1'!G39/'Table MV-1'!$G$61</f>
-        <v>3.0602035432785312E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5936,8 +5877,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>'Table MV-1'!M39/'Table MV-1'!$M$61</f>
-        <v>9.4484482729637106E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5948,8 +5888,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <f>'Table MV-1'!G40/'Table MV-1'!$G$61</f>
-        <v>2.5791157005332504E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5961,8 +5900,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>'Table MV-1'!M40/'Table MV-1'!$M$61</f>
-        <v>1.4574562867579076E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5973,8 +5911,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f>'Table MV-1'!G41/'Table MV-1'!$G$61</f>
-        <v>9.7280691208571756E-3</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5986,8 +5923,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>'Table MV-1'!M41/'Table MV-1'!$M$61</f>
-        <v>6.5976316440405662E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5998,8 +5934,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f>'Table MV-1'!G42/'Table MV-1'!$G$61</f>
-        <v>8.1156995396778245E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -6011,8 +5946,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f>'Table MV-1'!M42/'Table MV-1'!$M$61</f>
-        <v>4.6183181358622691E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6023,8 +5957,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <f>'Table MV-1'!G43/'Table MV-1'!$G$61</f>
-        <v>3.311776120277922E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6036,8 +5969,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>'Table MV-1'!M43/'Table MV-1'!$M$61</f>
-        <v>2.2775793874742739E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6048,8 +5980,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <f>'Table MV-1'!G44/'Table MV-1'!$G$61</f>
-        <v>3.6394563568276817E-3</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6061,8 +5992,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f>'Table MV-1'!M44/'Table MV-1'!$M$61</f>
-        <v>4.3507914132087117E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6073,8 +6003,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <f>'Table MV-1'!G45/'Table MV-1'!$G$61</f>
-        <v>4.1215377721519487E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6086,8 +6015,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f>'Table MV-1'!M45/'Table MV-1'!$M$61</f>
-        <v>4.5702521811592983E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6098,8 +6026,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <f>'Table MV-1'!G46/'Table MV-1'!$G$61</f>
-        <v>2.8227396969007492E-3</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6111,8 +6038,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f>'Table MV-1'!M46/'Table MV-1'!$M$61</f>
-        <v>1.6077419447799869E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6123,8 +6049,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <f>'Table MV-1'!G47/'Table MV-1'!$G$61</f>
-        <v>1.772632838169879E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6136,8 +6061,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>'Table MV-1'!M47/'Table MV-1'!$M$61</f>
-        <v>1.4843290338538977E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6148,8 +6072,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <f>'Table MV-1'!G48/'Table MV-1'!$G$61</f>
-        <v>5.4911775722848888E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6161,8 +6084,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f>'Table MV-1'!M48/'Table MV-1'!$M$61</f>
-        <v>4.3286135919905287E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6173,8 +6095,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <f>'Table MV-1'!G49/'Table MV-1'!$G$61</f>
-        <v>2.3031012380907907E-3</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6186,8 +6107,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>'Table MV-1'!M49/'Table MV-1'!$M$61</f>
-        <v>2.8346065267874938E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6198,8 +6118,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f>'Table MV-1'!G50/'Table MV-1'!$G$61</f>
-        <v>1.6360166085592303E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6211,8 +6130,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f>'Table MV-1'!M50/'Table MV-1'!$M$61</f>
-        <v>1.3750249155273566E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6223,8 +6141,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <f>'Table MV-1'!G51/'Table MV-1'!$G$61</f>
-        <v>2.6518452133150647E-3</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6236,8 +6153,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f>'Table MV-1'!M51/'Table MV-1'!$M$61</f>
-        <v>1.5581990696602122E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6248,8 +6164,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <f>'Table MV-1'!G52/'Table MV-1'!$G$61</f>
-        <v>2.9370005434842007E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6261,8 +6176,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f>'Table MV-1'!M52/'Table MV-1'!$M$61</f>
-        <v>2.12856652265692E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6273,8 +6187,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <f>'Table MV-1'!G53/'Table MV-1'!$G$61</f>
-        <v>7.0475096600093989E-2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6286,8 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <f>'Table MV-1'!M53/'Table MV-1'!$M$61</f>
-        <v>3.9420566897290392E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6298,8 +6210,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <f>'Table MV-1'!G54/'Table MV-1'!$G$61</f>
-        <v>6.3797295296725487E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6311,8 +6222,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f>'Table MV-1'!M54/'Table MV-1'!$M$61</f>
-        <v>1.4880153311543754E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6323,8 +6233,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <f>'Table MV-1'!G55/'Table MV-1'!$G$61</f>
-        <v>1.0720648127264725E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6336,8 +6245,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f>'Table MV-1'!M55/'Table MV-1'!$M$61</f>
-        <v>3.4752057482222922E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6348,8 +6256,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <f>'Table MV-1'!G56/'Table MV-1'!$G$61</f>
-        <v>3.5235064368599529E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6361,8 +6268,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f>'Table MV-1'!M56/'Table MV-1'!$M$61</f>
-        <v>2.2146721837048848E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6373,8 +6279,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <f>'Table MV-1'!G57/'Table MV-1'!$G$61</f>
-        <v>2.4016636379262549E-2</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6386,8 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f>'Table MV-1'!M57/'Table MV-1'!$M$61</f>
-        <v>2.6590331094337991E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6398,8 +6302,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <f>'Table MV-1'!G58/'Table MV-1'!$G$61</f>
-        <v>3.1347214867025212E-3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6411,8 +6314,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <f>'Table MV-1'!M58/'Table MV-1'!$M$61</f>
-        <v>5.2267373026870347E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6423,8 +6325,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <f>'Table MV-1'!G59/'Table MV-1'!$G$61</f>
-        <v>1.4844967902637837E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6436,8 +6337,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f>'Table MV-1'!M59/'Table MV-1'!$M$61</f>
-        <v>3.3177876452605261E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6448,8 +6348,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <f>'Table MV-1'!G60/'Table MV-1'!$G$61</f>
-        <v>4.0746411464237849E-3</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6461,8 +6360,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f>'Table MV-1'!M60/'Table MV-1'!$M$61</f>
-        <v>3.420691775114251E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6685,12 +6583,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7265625" customWidth="1"/>
+    <col min="2" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6721,24 +6621,22 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <f>C2</f>
-        <v>1.9600927701391289E-2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f>'Table MV-1'!J10/'Table MV-1'!$J$61</f>
-        <v>1.9600927701391289E-2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6746,12 +6644,10 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B52" si="0">C3</f>
-        <v>3.6314972397001131E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>'Table MV-1'!J11/'Table MV-1'!$J$61</f>
-        <v>3.6314972397001131E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6771,12 +6667,10 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2.1767409304149131E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>'Table MV-1'!J12/'Table MV-1'!$J$61</f>
-        <v>2.1767409304149131E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6796,12 +6690,10 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1.1515440266444459E-2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>'Table MV-1'!J13/'Table MV-1'!$J$61</f>
-        <v>1.1515440266444459E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6821,12 +6713,10 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>9.483573703336938E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>'Table MV-1'!J14/'Table MV-1'!$J$61</f>
-        <v>9.483573703336938E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6846,12 +6736,10 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>2.17963420575671E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>'Table MV-1'!J15/'Table MV-1'!$J$61</f>
-        <v>2.17963420575671E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6871,12 +6759,10 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>9.6855101995915252E-3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>'Table MV-1'!J16/'Table MV-1'!$J$61</f>
-        <v>9.6855101995915252E-3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6896,12 +6782,10 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>3.607073808587494E-3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>'Table MV-1'!J17/'Table MV-1'!$J$61</f>
-        <v>3.607073808587494E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6921,12 +6805,10 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8.5193982126037439E-4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>'Table MV-1'!J18/'Table MV-1'!$J$61</f>
-        <v>8.5193982126037439E-4</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6946,12 +6828,10 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>6.1586335732623156E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f>'Table MV-1'!J19/'Table MV-1'!$J$61</f>
-        <v>6.1586335732623156E-2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6971,12 +6851,10 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>3.1525712849526988E-2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f>'Table MV-1'!J20/'Table MV-1'!$J$61</f>
-        <v>3.1525712849526988E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6996,12 +6874,10 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4.5222742187277015E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f>'Table MV-1'!J21/'Table MV-1'!$J$61</f>
-        <v>4.5222742187277015E-3</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -7021,12 +6897,10 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>7.8435139790973586E-3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f>'Table MV-1'!J22/'Table MV-1'!$J$61</f>
-        <v>7.8435139790973586E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7046,12 +6920,10 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3.7864302450454933E-2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f>'Table MV-1'!J23/'Table MV-1'!$J$61</f>
-        <v>3.7864302450454933E-2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -7071,12 +6943,10 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2.3819250059067168E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f>'Table MV-1'!J24/'Table MV-1'!$J$61</f>
-        <v>2.3819250059067168E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7096,12 +6966,10 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.5005240724472678E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f>'Table MV-1'!J25/'Table MV-1'!$J$61</f>
-        <v>1.5005240724472678E-2</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -7121,12 +6989,10 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1.0017236512864749E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f>'Table MV-1'!J26/'Table MV-1'!$J$61</f>
-        <v>1.0017236512864749E-2</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -7146,12 +7012,10 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1.6767766333459132E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f>'Table MV-1'!J27/'Table MV-1'!$J$61</f>
-        <v>1.6767766333459132E-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -7171,12 +7035,10 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1.4952243799136747E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <f>'Table MV-1'!J28/'Table MV-1'!$J$61</f>
-        <v>1.4952243799136747E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7196,12 +7058,10 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4.472553985012004E-3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f>'Table MV-1'!J29/'Table MV-1'!$J$61</f>
-        <v>4.472553985012004E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -7221,12 +7081,10 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.3953713838208291E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <f>'Table MV-1'!J30/'Table MV-1'!$J$61</f>
-        <v>1.3953713838208291E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -7246,12 +7104,10 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.7847984402303698E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <f>'Table MV-1'!J31/'Table MV-1'!$J$61</f>
-        <v>1.7847984402303698E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -7271,12 +7127,10 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3.4161287854521931E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f>'Table MV-1'!J32/'Table MV-1'!$J$61</f>
-        <v>3.4161287854521931E-2</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7296,12 +7150,10 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2.221147844524117E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f>'Table MV-1'!J33/'Table MV-1'!$J$61</f>
-        <v>2.221147844524117E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7321,12 +7173,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>7.63482155174601E-3</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <f>'Table MV-1'!J34/'Table MV-1'!$J$61</f>
-        <v>7.63482155174601E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7346,12 +7196,10 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2.1277992980917738E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f>'Table MV-1'!J35/'Table MV-1'!$J$61</f>
-        <v>2.1277992980917738E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7371,12 +7219,10 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>7.0185743445526595E-3</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <f>'Table MV-1'!J36/'Table MV-1'!$J$61</f>
-        <v>7.0185743445526595E-3</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7396,12 +7242,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>7.6979830346411097E-3</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <f>'Table MV-1'!J37/'Table MV-1'!$J$61</f>
-        <v>7.6979830346411097E-3</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7421,12 +7265,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>8.9770758442244206E-3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f>'Table MV-1'!J38/'Table MV-1'!$J$61</f>
-        <v>8.9770758442244206E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7446,12 +7288,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>5.0478518381385203E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <f>'Table MV-1'!J39/'Table MV-1'!$J$61</f>
-        <v>5.0478518381385203E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7471,12 +7311,10 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>2.0550771847319699E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>'Table MV-1'!J40/'Table MV-1'!$J$61</f>
-        <v>2.0550771847319699E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7496,12 +7334,10 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>6.7792148090505171E-3</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <f>'Table MV-1'!J41/'Table MV-1'!$J$61</f>
-        <v>6.7792148090505171E-3</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7521,12 +7357,10 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>4.1040438660927506E-2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <f>'Table MV-1'!J42/'Table MV-1'!$J$61</f>
-        <v>4.1040438660927506E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7546,12 +7380,10 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>3.1700275653385936E-2</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <f>'Table MV-1'!J43/'Table MV-1'!$J$61</f>
-        <v>3.1700275653385936E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7571,12 +7403,10 @@
         <v>24</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>3.986117035446643E-3</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <f>'Table MV-1'!J44/'Table MV-1'!$J$61</f>
-        <v>3.986117035446643E-3</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7596,12 +7426,10 @@
         <v>23</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>3.6683925395789657E-2</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <f>'Table MV-1'!J45/'Table MV-1'!$J$61</f>
-        <v>3.6683925395789657E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7621,12 +7449,10 @@
         <v>22</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>1.4677986568760525E-2</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <f>'Table MV-1'!J46/'Table MV-1'!$J$61</f>
-        <v>1.4677986568760525E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -7646,12 +7472,10 @@
         <v>21</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>1.5566676127984676E-2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <f>'Table MV-1'!J47/'Table MV-1'!$J$61</f>
-        <v>1.5566676127984676E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -7671,12 +7495,10 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>3.8593803021701831E-2</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <f>'Table MV-1'!J48/'Table MV-1'!$J$61</f>
-        <v>3.8593803021701831E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7696,12 +7518,10 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>2.8426879307146095E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <f>'Table MV-1'!J49/'Table MV-1'!$J$61</f>
-        <v>2.8426879307146095E-3</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7721,12 +7541,10 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>1.6494772704388254E-2</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <f>'Table MV-1'!J50/'Table MV-1'!$J$61</f>
-        <v>1.6494772704388254E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7746,12 +7564,10 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>5.1835093488657516E-3</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <f>'Table MV-1'!J51/'Table MV-1'!$J$61</f>
-        <v>5.1835093488657516E-3</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7771,12 +7587,10 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>2.1883288976798098E-2</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <f>'Table MV-1'!J52/'Table MV-1'!$J$61</f>
-        <v>2.1883288976798098E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7796,12 +7610,10 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>8.6297781225124395E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <f>'Table MV-1'!J53/'Table MV-1'!$J$61</f>
-        <v>8.6297781225124395E-2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7821,12 +7633,10 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>8.9600234207263124E-3</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <f>'Table MV-1'!J54/'Table MV-1'!$J$61</f>
-        <v>8.9600234207263124E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7846,12 +7656,10 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>2.3814053188992734E-3</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <f>'Table MV-1'!J55/'Table MV-1'!$J$61</f>
-        <v>2.3814053188992734E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7871,12 +7679,10 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2.6816184066770478E-2</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <f>'Table MV-1'!J56/'Table MV-1'!$J$61</f>
-        <v>2.6816184066770478E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7896,12 +7702,10 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>2.6086002141878541E-2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <f>'Table MV-1'!J57/'Table MV-1'!$J$61</f>
-        <v>2.6086002141878541E-2</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7921,12 +7725,10 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>6.8260176103406393E-3</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <f>'Table MV-1'!J58/'Table MV-1'!$J$61</f>
-        <v>6.8260176103406393E-3</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7946,12 +7748,10 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>2.1205726135675299E-2</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <f>'Table MV-1'!J59/'Table MV-1'!$J$61</f>
-        <v>2.1205726135675299E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7971,12 +7771,10 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>3.9463197884523288E-3</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <f>'Table MV-1'!J60/'Table MV-1'!$J$61</f>
-        <v>3.9463197884523288E-3</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\trans\VSbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA0366-9DF8-4F3F-8FC9-3B1365BA10A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EF7533-8C5B-4E3E-979A-4A90F3765091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,32 @@
     <definedName name="YEAR">#REF!</definedName>
     <definedName name="YEAR2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>VSbS Vehicle Shares by Subregion</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -59,252 +72,6 @@
   </si>
   <si>
     <t>Table MV-1 (State motor-vehicle registrations)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>This variable is used for a share of sales by subregion, but you can use share of total number of registered</t>
-  </si>
-  <si>
-    <t>vehicles in each subregion as a proxy for share of sales.</t>
-  </si>
-  <si>
-    <t>U.S. Data Notes</t>
-  </si>
-  <si>
-    <t>The categories the Federal Highway Administration uses are: automobiles, buses, trucks, and motorcycles.</t>
-  </si>
-  <si>
-    <t>We use the "automobile" shares to represent all passenger LDVs in the EPS, even though passenger LDVs</t>
-  </si>
-  <si>
-    <t>include passenger SUVs, which are technically light trucks.  The state-by-state distribution of</t>
-  </si>
-  <si>
-    <t>SUVs ought to be similar to the state-by-state distribution of automobiles.</t>
-  </si>
-  <si>
-    <t>We use the "truck" shares to represent both freight LDVs and freight HDVs in the EPS.</t>
-  </si>
-  <si>
-    <t>Adapting this Variable to Other EPS Regions</t>
-  </si>
-  <si>
-    <t>If you are adapting the EPS to another country or region and don't want to use</t>
-  </si>
-  <si>
-    <t>sub-regional ZEV mandates, simply put "1" in the first sub-region row for each type of road</t>
-  </si>
-  <si>
-    <t>vehicle and put "0" in all other cells on the blue output tabs.</t>
-  </si>
-  <si>
-    <t>STATE MOTOR-VEHICLE REGISTRATIONS - 2020</t>
-  </si>
-  <si>
-    <t>June 2022</t>
-  </si>
-  <si>
-    <t>TABLE MV-1</t>
-  </si>
-  <si>
-    <t>AUTOMOBILES</t>
-  </si>
-  <si>
-    <t>BUSES</t>
-  </si>
-  <si>
-    <t>TRUCKS</t>
-  </si>
-  <si>
-    <t>MOTORCYCLES</t>
-  </si>
-  <si>
-    <t>ALL MOTOR VEHICLES</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>PRIVATE AND</t>
-  </si>
-  <si>
-    <t>COMMERCIAL</t>
-  </si>
-  <si>
-    <t>PUBLICLY</t>
-  </si>
-  <si>
-    <t>(INCLUDING</t>
-  </si>
-  <si>
-    <t>OWNED</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWNED </t>
-  </si>
-  <si>
-    <t>TAXICABS)</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska </t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado </t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dist. of Col. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia </t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa </t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maine </t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts (2)</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi </t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montana </t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada </t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Jersey </t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York </t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon </t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhode Island </t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas </t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington </t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Total</t>
   </si>
   <si>
     <t>Sums may not equal to totals due to rounding.
@@ -312,31 +79,259 @@
 (2) Some data estimated by FHWA using secondary data sources due to data quality concerns.</t>
   </si>
   <si>
+    <t xml:space="preserve">   Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin </t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota </t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island </t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma  </t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey </t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada </t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Massachusetts (2)</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine </t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois </t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dist. of Col. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware </t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California </t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska </t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TAXICABS)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>OWNED</t>
+  </si>
+  <si>
+    <t>COMMERCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNED </t>
+  </si>
+  <si>
+    <t>(INCLUDING</t>
+  </si>
+  <si>
+    <t>PUBLICLY</t>
+  </si>
+  <si>
+    <t>PRIVATE AND</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ALL MOTOR VEHICLES</t>
+  </si>
+  <si>
+    <t>MOTORCYCLES</t>
+  </si>
+  <si>
+    <t>TRUCKS</t>
+  </si>
+  <si>
+    <t>BUSES</t>
+  </si>
+  <si>
+    <t>AUTOMOBILES</t>
+  </si>
+  <si>
+    <t>TABLE MV-1</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>STATE MOTOR-VEHICLE REGISTRATIONS - 2020</t>
+  </si>
+  <si>
+    <t>LDVs</t>
+  </si>
+  <si>
+    <t>HDVs</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>motorbikes</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
     <t>Unit: dimensionless (share of vehicles)</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The categories the Federal Highway Administration uses are: automobiles, buses, trucks, and motorcycles.</t>
+  </si>
+  <si>
+    <t>SUVs ought to be similar to the state-by-state distribution of automobiles.</t>
+  </si>
+  <si>
+    <t>We use the "truck" shares to represent both freight LDVs and freight HDVs in the EPS.</t>
+  </si>
+  <si>
+    <t>We use the "automobile" shares to represent all passenger LDVs in the EPS, even though passenger LDVs</t>
+  </si>
+  <si>
+    <t>include passenger SUVs, which are technically light trucks.  The state-by-state distribution of</t>
   </si>
   <si>
     <t>subregion52</t>
@@ -364,6 +359,30 @@
   </si>
   <si>
     <t>subregion60</t>
+  </si>
+  <si>
+    <t>Adapting this Variable to Other EPS Regions</t>
+  </si>
+  <si>
+    <t>If you are adapting the EPS to another country or region and don't want to use</t>
+  </si>
+  <si>
+    <t>vehicle and put "0" in all other cells on the blue output tabs.</t>
+  </si>
+  <si>
+    <t>sub-regional ZEV mandates, simply put "1" in the first sub-region row for each type of road</t>
+  </si>
+  <si>
+    <t>This variable is used for a share of sales by subregion, but you can use share of total number of registered</t>
+  </si>
+  <si>
+    <t>vehicles in each subregion as a proxy for share of sales.</t>
+  </si>
+  <si>
+    <t>U.S. Data Notes</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -374,7 +393,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_);[Red]\(#,##0\);\—_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +467,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -469,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1034,9 +1059,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1045,27 +1068,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="8"/>
-      </left>
-      <right style="double">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
@@ -1100,7 +1110,7 @@
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1115,7 +1125,7 @@
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,17 +1133,18 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,9 +1158,11 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1240,39 +1253,42 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{7B2DBB66-964B-4992-8A85-CF7563C0181E}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 8 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E09E58F7-B5CC-452C-AA86-E5E58F21EA40}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="3" xr:uid="{71652849-4109-4C98-A937-5DD92ACA3696}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{58A5829F-0798-4AC5-A887-3CBCA8BB0153}"/>
+    <cellStyle name="Normal 8 2" xfId="4" xr:uid="{1E08BF75-563B-4006-9FB0-94126509CFF1}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1614,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B0F8C0-DE1A-4000-9351-A11EE8CD5BC4}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1629,18 +1645,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="101">
-        <v>45194</v>
+        <v>108</v>
+      </c>
+      <c r="C1" s="104">
+        <v>45258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1650,361 +1666,386 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="100"/>
+      <c r="A13" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="98"/>
+      <c r="A23" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="101"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E8E2C6EE-F51D-430F-B52A-741CFFD15A20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F6402-DD66-4CAC-8910-748EA4AEB83B}">
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.25"/>
+  <sheetFormatPr defaultRowHeight="8.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
     <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
-    <col min="17" max="21" width="9.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+    <row r="1" spans="1:16" ht="15">
+      <c r="A1" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="95"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-    </row>
-    <row r="3" spans="1:16" ht="9" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.85" customHeight="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-    </row>
-    <row r="5" spans="1:16" ht="9" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:16" ht="9">
+      <c r="A3" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="94"/>
+      <c r="B4" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+    </row>
+    <row r="5" spans="1:16" ht="9">
+      <c r="A5" s="79"/>
+      <c r="B5" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="111"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="111"/>
       <c r="P5" s="114"/>
     </row>
-    <row r="6" spans="1:16" ht="9" customHeight="1">
-      <c r="A6" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="84"/>
-    </row>
-    <row r="7" spans="1:16" ht="9" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="78"/>
-    </row>
-    <row r="8" spans="1:16" ht="9" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="9" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="75">
+    <row r="6" spans="1:16" ht="9">
+      <c r="A6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="83"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="87"/>
+    </row>
+    <row r="7" spans="1:16" ht="9">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="83"/>
+      <c r="N7" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="9">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="9">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="78">
         <v>-1</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="76">
+      <c r="D9" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="79">
         <v>-1</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="71">
+      <c r="G9" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="74">
         <v>-1</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="71">
+      <c r="J9" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="74">
         <v>-1</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="71">
+      <c r="M9" s="76"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="74">
         <v>-1</v>
       </c>
-      <c r="P9" s="70"/>
-    </row>
-    <row r="10" spans="1:16" ht="9" customHeight="1">
+      <c r="P9" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="9">
       <c r="A10" s="19" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B10" s="12">
         <v>1993089</v>
@@ -2021,7 +2062,7 @@
       <c r="F10" s="30">
         <v>132</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="72">
         <v>5624</v>
       </c>
       <c r="H10" s="13">
@@ -2052,14 +2093,14 @@
         <v>5320340</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="9" customHeight="1">
+    <row r="11" spans="1:16" ht="9">
       <c r="A11" s="19" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B11" s="12">
         <v>167313</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="53">
         <v>3831</v>
       </c>
       <c r="D11" s="26">
@@ -2071,13 +2112,13 @@
       <c r="F11" s="17">
         <v>598</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="71">
         <v>8620</v>
       </c>
       <c r="H11" s="28">
         <v>571380</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="53">
         <v>14901</v>
       </c>
       <c r="J11" s="26">
@@ -2102,14 +2143,14 @@
         <v>792826</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="9" customHeight="1">
+    <row r="12" spans="1:16" ht="9">
       <c r="A12" s="19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B12" s="12">
         <v>2391632</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="53">
         <v>18386</v>
       </c>
       <c r="D12" s="26">
@@ -2121,13 +2162,13 @@
       <c r="F12" s="17">
         <v>7033</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="71">
         <v>8486</v>
       </c>
       <c r="H12" s="28">
         <v>3479891</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="53">
         <v>34312</v>
       </c>
       <c r="J12" s="26">
@@ -2152,9 +2193,9 @@
         <v>6053781</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="9" customHeight="1">
+    <row r="13" spans="1:16" ht="9">
       <c r="A13" s="19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12">
         <v>860646</v>
@@ -2162,7 +2203,7 @@
       <c r="C13" s="12">
         <v>11791</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="62">
         <v>872437</v>
       </c>
       <c r="E13" s="10">
@@ -2171,7 +2212,7 @@
       <c r="F13" s="41">
         <v>722</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="70">
         <v>12044</v>
       </c>
       <c r="H13" s="13">
@@ -2180,7 +2221,7 @@
       <c r="I13" s="12">
         <v>27332</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="64">
         <v>1859091</v>
       </c>
       <c r="K13" s="15">
@@ -2189,7 +2230,7 @@
       <c r="L13" s="42">
         <v>1</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="62">
         <v>169797</v>
       </c>
       <c r="N13" s="33">
@@ -2202,9 +2243,9 @@
         <v>2913369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="9" customHeight="1">
+    <row r="14" spans="1:16" ht="9">
       <c r="A14" s="52" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B14" s="51">
         <v>13957692</v>
@@ -2252,9 +2293,9 @@
         <v>30398249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="9" customHeight="1">
+    <row r="15" spans="1:16" ht="9">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B15" s="12">
         <v>1623494</v>
@@ -2302,9 +2343,9 @@
         <v>5350708</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="9" customHeight="1">
+    <row r="16" spans="1:16" ht="9">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B16" s="12">
         <v>1210262</v>
@@ -2352,9 +2393,9 @@
         <v>2867554</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="9" customHeight="1">
+    <row r="17" spans="1:16" ht="9">
       <c r="A17" s="43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B17" s="42">
         <v>414460</v>
@@ -2362,7 +2403,7 @@
       <c r="C17" s="42">
         <v>1455</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="64">
         <v>415915</v>
       </c>
       <c r="E17" s="18">
@@ -2371,7 +2412,7 @@
       <c r="F17" s="41">
         <v>468</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="62">
         <v>3859</v>
       </c>
       <c r="H17" s="33">
@@ -2380,16 +2421,16 @@
       <c r="I17" s="42">
         <v>3247</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="64">
         <v>582338</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="63">
         <v>4023</v>
       </c>
       <c r="L17" s="42">
         <v>0</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="62">
         <v>4023</v>
       </c>
       <c r="N17" s="33">
@@ -2402,9 +2443,9 @@
         <v>1006135</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="9" customHeight="1">
+    <row r="18" spans="1:16" ht="9">
       <c r="A18" s="19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12">
         <v>191873</v>
@@ -2452,14 +2493,14 @@
         <v>356537</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="9" customHeight="1">
+    <row r="19" spans="1:16" ht="9">
       <c r="A19" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="12">
         <v>7736727</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="69">
         <v>104826</v>
       </c>
       <c r="D19" s="26">
@@ -2477,7 +2518,7 @@
       <c r="H19" s="28">
         <v>9792260</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="69">
         <v>150443</v>
       </c>
       <c r="J19" s="26">
@@ -2502,14 +2543,14 @@
         <v>18464506</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="9" customHeight="1">
+    <row r="20" spans="1:16" ht="9">
       <c r="A20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="12">
         <v>3444115</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="53">
         <v>51306</v>
       </c>
       <c r="D20" s="26">
@@ -2527,7 +2568,7 @@
       <c r="H20" s="28">
         <v>5006420</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="53">
         <v>83196</v>
       </c>
       <c r="J20" s="26">
@@ -2552,9 +2593,9 @@
         <v>8829596</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="9" customHeight="1">
+    <row r="21" spans="1:16" ht="9">
       <c r="A21" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="12">
         <v>468176</v>
@@ -2602,9 +2643,9 @@
         <v>1244935</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="9" customHeight="1">
+    <row r="22" spans="1:16" ht="9">
       <c r="A22" s="52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="51">
         <v>586008</v>
@@ -2642,7 +2683,7 @@
       <c r="M22" s="23">
         <v>59225</v>
       </c>
-      <c r="N22" s="54">
+      <c r="N22" s="55">
         <v>1906586</v>
       </c>
       <c r="O22" s="21">
@@ -2652,9 +2693,9 @@
         <v>1917677</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9" customHeight="1">
+    <row r="23" spans="1:16" ht="9">
       <c r="A23" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="12">
         <v>4126473</v>
@@ -2702,9 +2743,9 @@
         <v>10587725</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9" customHeight="1">
+    <row r="24" spans="1:16" ht="9">
       <c r="A24" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="12">
         <v>2121269</v>
@@ -2752,9 +2793,9 @@
         <v>6199901</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9" customHeight="1">
+    <row r="25" spans="1:16" ht="9">
       <c r="A25" s="43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B25" s="42">
         <v>1153267</v>
@@ -2792,7 +2833,7 @@
       <c r="M25" s="34">
         <v>191804</v>
       </c>
-      <c r="N25" s="53">
+      <c r="N25" s="54">
         <v>3747148</v>
       </c>
       <c r="O25" s="32">
@@ -2802,9 +2843,9 @@
         <v>3787224</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="9" customHeight="1">
+    <row r="26" spans="1:16" ht="9">
       <c r="A26" s="19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B26" s="12">
         <v>885177</v>
@@ -2852,14 +2893,14 @@
         <v>2603543</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9" customHeight="1">
+    <row r="27" spans="1:16" ht="9">
       <c r="A27" s="19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12">
         <v>1613475</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="53">
         <v>31022</v>
       </c>
       <c r="D27" s="26">
@@ -2877,7 +2918,7 @@
       <c r="H27" s="28">
         <v>2652943</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="53">
         <v>54101</v>
       </c>
       <c r="J27" s="26">
@@ -2902,9 +2943,9 @@
         <v>4459685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9" customHeight="1">
+    <row r="28" spans="1:16" ht="9">
       <c r="A28" s="19" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B28" s="12">
         <v>1288404</v>
@@ -2952,9 +2993,9 @@
         <v>3861204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9" customHeight="1">
+    <row r="29" spans="1:16" ht="9">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B29" s="21">
         <v>352449</v>
@@ -2962,7 +3003,7 @@
       <c r="C29" s="12">
         <v>3630</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="62">
         <v>356079</v>
       </c>
       <c r="E29" s="18">
@@ -2971,7 +3012,7 @@
       <c r="F29" s="41">
         <v>3137</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29" s="62">
         <v>4623</v>
       </c>
       <c r="H29" s="33">
@@ -2980,16 +3021,16 @@
       <c r="I29" s="42">
         <v>8406</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="64">
         <v>722064</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="63">
         <v>38319</v>
       </c>
       <c r="L29" s="42">
         <v>21</v>
       </c>
-      <c r="M29" s="61">
+      <c r="M29" s="62">
         <v>38340</v>
       </c>
       <c r="N29" s="33">
@@ -3002,9 +3043,9 @@
         <v>1121106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9" customHeight="1">
+    <row r="30" spans="1:16" ht="9">
       <c r="A30" s="52" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B30" s="51">
         <v>1795964</v>
@@ -3052,17 +3093,17 @@
         <v>4211377</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9" customHeight="1">
+    <row r="31" spans="1:16" ht="9">
       <c r="A31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="45">
+        <v>37</v>
+      </c>
+      <c r="B31" s="65">
         <v>1999889</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="65">
         <v>3484</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="68">
         <v>2003373</v>
       </c>
       <c r="E31" s="29">
@@ -3071,40 +3112,40 @@
       <c r="F31" s="17">
         <v>242</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="66">
         <v>13752</v>
       </c>
       <c r="H31" s="44">
         <v>2870674</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="65">
         <v>10764</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="68">
         <v>2881438</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="67">
         <v>137409</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="65">
         <v>714</v>
       </c>
-      <c r="M31" s="64">
+      <c r="M31" s="66">
         <v>138123</v>
       </c>
       <c r="N31" s="44">
         <v>5021482</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="65">
         <v>15204</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="65">
         <v>5036686</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="9" customHeight="1">
+    <row r="32" spans="1:16" ht="9">
       <c r="A32" s="19" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B32" s="12">
         <v>2671737</v>
@@ -3152,9 +3193,9 @@
         <v>8453239</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9" customHeight="1">
+    <row r="33" spans="1:16" ht="9">
       <c r="A33" s="43" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B33" s="42">
         <v>1827137</v>
@@ -3162,7 +3203,7 @@
       <c r="C33" s="42">
         <v>14553</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="64">
         <v>1841690</v>
       </c>
       <c r="E33" s="18">
@@ -3171,7 +3212,7 @@
       <c r="F33" s="41">
         <v>5763</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="62">
         <v>19192</v>
       </c>
       <c r="H33" s="33">
@@ -3180,16 +3221,16 @@
       <c r="I33" s="42">
         <v>31783</v>
       </c>
-      <c r="J33" s="63">
+      <c r="J33" s="64">
         <v>3585895</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="63">
         <v>243972</v>
       </c>
       <c r="L33" s="42">
         <v>0</v>
       </c>
-      <c r="M33" s="61">
+      <c r="M33" s="62">
         <v>243972</v>
       </c>
       <c r="N33" s="33">
@@ -3202,14 +3243,14 @@
         <v>5690749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="9" customHeight="1">
+    <row r="34" spans="1:16" ht="9">
       <c r="A34" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B34" s="12">
         <v>786202</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="53">
         <v>2223</v>
       </c>
       <c r="D34" s="26">
@@ -3227,7 +3268,7 @@
       <c r="H34" s="28">
         <v>1226266</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="53">
         <v>6325</v>
       </c>
       <c r="J34" s="26">
@@ -3252,9 +3293,9 @@
         <v>2058975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="9" customHeight="1">
+    <row r="35" spans="1:16" ht="9">
       <c r="A35" s="19" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B35" s="12">
         <v>1975005</v>
@@ -3302,14 +3343,14 @@
         <v>5587022</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="9" customHeight="1">
+    <row r="36" spans="1:16" ht="9">
       <c r="A36" s="19" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B36" s="12">
         <v>458637</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="53">
         <v>444</v>
       </c>
       <c r="D36" s="26">
@@ -3327,7 +3368,7 @@
       <c r="H36" s="28">
         <v>1129447</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="53">
         <v>3655</v>
       </c>
       <c r="J36" s="26">
@@ -3352,9 +3393,9 @@
         <v>1952553</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="9" customHeight="1">
+    <row r="37" spans="1:16" ht="9">
       <c r="A37" s="19" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B37" s="12">
         <v>610897</v>
@@ -3389,7 +3430,7 @@
       <c r="L37" s="35">
         <v>96</v>
       </c>
-      <c r="M37" s="60">
+      <c r="M37" s="61">
         <v>50373</v>
       </c>
       <c r="N37" s="33">
@@ -3402,9 +3443,9 @@
         <v>1935357</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="9" customHeight="1">
+    <row r="38" spans="1:16" ht="9">
       <c r="A38" s="52" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B38" s="51">
         <v>1020129</v>
@@ -3412,7 +3453,7 @@
       <c r="C38" s="51">
         <v>7374</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="59">
         <v>1027503</v>
       </c>
       <c r="E38" s="29">
@@ -3421,25 +3462,25 @@
       <c r="F38" s="30">
         <v>2688</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="57">
         <v>3209</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="60">
         <v>1435681</v>
       </c>
       <c r="I38" s="51">
         <v>13608</v>
       </c>
-      <c r="J38" s="58">
+      <c r="J38" s="59">
         <v>1449289</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="58">
         <v>69356</v>
       </c>
       <c r="L38" s="51">
         <v>0</v>
       </c>
-      <c r="M38" s="56">
+      <c r="M38" s="57">
         <v>69356</v>
       </c>
       <c r="N38" s="22">
@@ -3452,9 +3493,9 @@
         <v>2549357</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="9" customHeight="1">
+    <row r="39" spans="1:16" ht="9">
       <c r="A39" s="19" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B39" s="12">
         <v>458256</v>
@@ -3502,9 +3543,9 @@
         <v>1357535</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="9" customHeight="1">
+    <row r="40" spans="1:16" ht="9">
       <c r="A40" s="19" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B40" s="12">
         <v>2518878</v>
@@ -3552,9 +3593,9 @@
         <v>6006247</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="9" customHeight="1">
+    <row r="41" spans="1:16" ht="9">
       <c r="A41" s="43" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B41" s="42">
         <v>617536</v>
@@ -3602,9 +3643,9 @@
         <v>1783151</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="9" customHeight="1">
+    <row r="42" spans="1:16" ht="9">
       <c r="A42" s="19" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B42" s="12">
         <v>4214023</v>
@@ -3627,7 +3668,7 @@
       <c r="H42" s="28">
         <v>6585225</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="53">
         <v>40480</v>
       </c>
       <c r="J42" s="26">
@@ -3652,9 +3693,9 @@
         <v>11324755</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="9" customHeight="1">
+    <row r="43" spans="1:16" ht="9">
       <c r="A43" s="19" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B43" s="12">
         <v>3352960</v>
@@ -3677,7 +3718,7 @@
       <c r="H43" s="28">
         <v>5042146</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="53">
         <v>75652</v>
       </c>
       <c r="J43" s="26">
@@ -3702,9 +3743,9 @@
         <v>8739280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9" customHeight="1">
+    <row r="44" spans="1:16" ht="9">
       <c r="A44" s="19" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B44" s="12">
         <v>211955</v>
@@ -3727,7 +3768,7 @@
       <c r="H44" s="28">
         <v>630951</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="53">
         <v>12581</v>
       </c>
       <c r="J44" s="26">
@@ -3752,11 +3793,11 @@
         <v>899083</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="9" customHeight="1">
+    <row r="45" spans="1:16" ht="9">
       <c r="A45" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="55">
+        <v>23</v>
+      </c>
+      <c r="B45" s="56">
         <v>4208938</v>
       </c>
       <c r="C45" s="45">
@@ -3802,9 +3843,9 @@
         <v>10592317</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="9" customHeight="1">
+    <row r="46" spans="1:16" ht="9">
       <c r="A46" s="52" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B46" s="51">
         <v>1218261</v>
@@ -3842,7 +3883,7 @@
       <c r="M46" s="23">
         <v>133895</v>
       </c>
-      <c r="N46" s="54">
+      <c r="N46" s="55">
         <v>3708789</v>
       </c>
       <c r="O46" s="46">
@@ -3852,9 +3893,9 @@
         <v>3730247</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="9" customHeight="1">
+    <row r="47" spans="1:16" ht="9">
       <c r="A47" s="19" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B47" s="12">
         <v>1416471</v>
@@ -3902,9 +3943,9 @@
         <v>4095442</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="9" customHeight="1">
+    <row r="48" spans="1:16" ht="9">
       <c r="A48" s="19" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B48" s="12">
         <v>3999144</v>
@@ -3952,9 +3993,9 @@
         <v>10690187</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="9" customHeight="1">
+    <row r="49" spans="1:16" ht="9">
       <c r="A49" s="43" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B49" s="42">
         <v>374939</v>
@@ -3992,7 +4033,7 @@
       <c r="M49" s="34">
         <v>23607</v>
       </c>
-      <c r="N49" s="53">
+      <c r="N49" s="54">
         <v>849912</v>
       </c>
       <c r="O49" s="21">
@@ -4002,9 +4043,9 @@
         <v>866625</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="9" customHeight="1">
+    <row r="50" spans="1:16" ht="9">
       <c r="A50" s="19" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B50" s="12">
         <v>1692051</v>
@@ -4027,7 +4068,7 @@
       <c r="H50" s="28">
         <v>2545151</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="53">
         <v>117820</v>
       </c>
       <c r="J50" s="26">
@@ -4052,9 +4093,9 @@
         <v>4561299</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="9" customHeight="1">
+    <row r="51" spans="1:16" ht="9">
       <c r="A51" s="19" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B51" s="12">
         <v>319820</v>
@@ -4102,9 +4143,9 @@
         <v>1294282</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="9" customHeight="1">
+    <row r="52" spans="1:16" ht="9">
       <c r="A52" s="19" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B52" s="12">
         <v>2069406</v>
@@ -4127,7 +4168,7 @@
       <c r="H52" s="28">
         <v>3451227</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="53">
         <v>81684</v>
       </c>
       <c r="J52" s="26">
@@ -4152,9 +4193,9 @@
         <v>5855373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="9" customHeight="1">
+    <row r="53" spans="1:16" ht="9">
       <c r="A53" s="19" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B53" s="12">
         <v>8000313</v>
@@ -4202,9 +4243,9 @@
         <v>22419490</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="9" customHeight="1">
+    <row r="54" spans="1:16" ht="9">
       <c r="A54" s="52" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B54" s="51">
         <v>891867</v>
@@ -4252,9 +4293,9 @@
         <v>2479604</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="9" customHeight="1">
+    <row r="55" spans="1:16" ht="9">
       <c r="A55" s="19" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B55" s="12">
         <v>189922</v>
@@ -4302,9 +4343,9 @@
         <v>607890</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="9" customHeight="1">
+    <row r="56" spans="1:16" ht="9">
       <c r="A56" s="19" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B56" s="12">
         <v>3014609</v>
@@ -4352,9 +4393,9 @@
         <v>7606452</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="9" customHeight="1">
+    <row r="57" spans="1:16" ht="9">
       <c r="A57" s="43" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B57" s="42">
         <v>2735895</v>
@@ -4402,9 +4443,9 @@
         <v>7257401</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9" customHeight="1">
+    <row r="58" spans="1:16" ht="9">
       <c r="A58" s="19" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B58" s="12">
         <v>497785</v>
@@ -4452,9 +4493,9 @@
         <v>1657362</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="9" customHeight="1">
+    <row r="59" spans="1:16" ht="9">
       <c r="A59" s="19" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B59" s="12">
         <v>1873334</v>
@@ -4502,9 +4543,9 @@
         <v>5616271</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9" customHeight="1">
+    <row r="60" spans="1:16" ht="9">
       <c r="A60" s="19" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B60" s="12">
         <v>188354</v>
@@ -4552,9 +4593,9 @@
         <v>861028</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="9" customHeight="1">
+    <row r="61" spans="1:16" ht="9">
       <c r="A61" s="11" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B61" s="7">
         <v>103796315</v>
@@ -4602,7 +4643,7 @@
         <v>275913237</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9" customHeight="1">
+    <row r="62" spans="1:16" ht="9">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4621,24 +4662,24 @@
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A63" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
+      <c r="A63" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4682,12 +4723,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78ABCA-933B-4659-9B31-0CC7983DEE50}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4704,31 +4745,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="96" t="s">
-        <v>90</v>
+      <c r="A1" s="99" t="s">
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4751,7 +4792,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4774,7 +4815,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4797,7 +4838,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4820,7 +4861,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4843,7 +4884,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4866,7 +4907,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4889,7 +4930,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4912,7 +4953,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4935,7 +4976,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4958,7 +4999,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4981,7 +5022,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5004,7 +5045,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5027,7 +5068,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5050,7 +5091,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5073,7 +5114,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5096,7 +5137,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5119,7 +5160,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5142,7 +5183,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5165,7 +5206,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5188,7 +5229,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5211,7 +5252,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5234,7 +5275,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5257,7 +5298,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5280,7 +5321,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5303,7 +5344,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5326,7 +5367,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5349,7 +5390,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5372,7 +5413,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5395,7 +5436,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5418,7 +5459,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5441,7 +5482,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5464,7 +5505,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5487,7 +5528,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5510,7 +5551,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5533,7 +5574,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5556,7 +5597,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5579,7 +5620,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5602,7 +5643,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5625,7 +5666,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5648,7 +5689,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5671,7 +5712,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5694,7 +5735,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5717,7 +5758,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5740,7 +5781,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5763,7 +5804,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5786,7 +5827,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5809,7 +5850,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5832,7 +5873,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5855,7 +5896,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5878,7 +5919,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5901,7 +5942,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5924,7 +5965,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5947,7 +5988,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5970,7 +6011,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5993,7 +6034,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6016,7 +6057,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6039,7 +6080,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6062,7 +6103,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6085,7 +6126,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6107,12 +6148,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB4474D-CAD8-4EF6-BCA5-F1268C4006F3}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6129,31 +6171,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="96" t="s">
-        <v>90</v>
+      <c r="A1" s="99" t="s">
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6176,7 +6218,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6199,7 +6241,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6222,7 +6264,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6245,7 +6287,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6268,7 +6310,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6291,7 +6333,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6314,7 +6356,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6337,7 +6379,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6360,7 +6402,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6383,7 +6425,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6406,7 +6448,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6429,7 +6471,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6452,7 +6494,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6475,7 +6517,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6498,7 +6540,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6521,7 +6563,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6544,7 +6586,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6567,7 +6609,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6590,7 +6632,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6613,7 +6655,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6636,7 +6678,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6659,7 +6701,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6682,7 +6724,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6705,7 +6747,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6728,7 +6770,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6751,7 +6793,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6774,7 +6816,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6797,7 +6839,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6820,7 +6862,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6843,7 +6885,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6866,7 +6908,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6889,7 +6931,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6912,7 +6954,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6935,7 +6977,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6958,7 +7000,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6981,7 +7023,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7004,7 +7046,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7027,7 +7069,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7050,7 +7092,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7073,7 +7115,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7096,7 +7138,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7119,7 +7161,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7142,7 +7184,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7165,7 +7207,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7188,7 +7230,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7211,7 +7253,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7234,7 +7276,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7257,7 +7299,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7280,7 +7322,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7303,7 +7345,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7326,7 +7368,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7349,7 +7391,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7372,7 +7414,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7395,7 +7437,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7418,7 +7460,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7441,7 +7483,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7464,7 +7506,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7487,7 +7529,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7510,7 +7552,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\VSbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EF7533-8C5B-4E3E-979A-4A90F3765091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C2F444-0CC4-4DD2-9B36-8914B3B2CE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="1170" yWindow="705" windowWidth="25680" windowHeight="16185" firstSheet="2" activeTab="2" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="104">
-        <v>45258</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4734,8 +4734,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6160,8 +6160,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6213,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
+++ b/InputData/trans/VSbS/Vehicle Shares by Subregion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\VSbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/VSbS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C2F444-0CC4-4DD2-9B36-8914B3B2CE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC0A890-196F-AF46-BF35-54C5F9957D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="705" windowWidth="25680" windowHeight="16185" firstSheet="2" activeTab="2" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="13840" windowHeight="12640" firstSheet="1" activeTab="3" xr2:uid="{F34BB550-7D2B-439D-9C81-D72ED5B29ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1635,9 +1634,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1648,7 +1647,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="104">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1766,14 +1765,14 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16" width="9.85546875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="16" width="9.83203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="14">
       <c r="A1" s="106" t="s">
         <v>76</v>
       </c>
@@ -1811,7 +1810,7 @@
       <c r="O2" s="96"/>
       <c r="P2" s="96"/>
     </row>
-    <row r="3" spans="1:16" ht="9">
+    <row r="3" spans="1:16" ht="11">
       <c r="A3" s="97" t="s">
         <v>75</v>
       </c>
@@ -1853,7 +1852,7 @@
       <c r="O4" s="108"/>
       <c r="P4" s="109"/>
     </row>
-    <row r="5" spans="1:16" ht="9">
+    <row r="5" spans="1:16" ht="11">
       <c r="A5" s="79"/>
       <c r="B5" s="110" t="s">
         <v>73</v>
@@ -1881,7 +1880,7 @@
       <c r="O5" s="111"/>
       <c r="P5" s="114"/>
     </row>
-    <row r="6" spans="1:16" ht="9">
+    <row r="6" spans="1:16" ht="11">
       <c r="A6" s="79" t="s">
         <v>68</v>
       </c>
@@ -1909,7 +1908,7 @@
       <c r="O6" s="88"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" ht="9">
+    <row r="7" spans="1:16" ht="11">
       <c r="A7" s="79"/>
       <c r="B7" s="79" t="s">
         <v>63</v>
@@ -1955,7 +1954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="9">
+    <row r="8" spans="1:16" ht="11">
       <c r="A8" s="79"/>
       <c r="B8" s="79" t="s">
         <v>65</v>
@@ -2003,7 +2002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="9">
+    <row r="9" spans="1:16" ht="11">
       <c r="A9" s="74"/>
       <c r="B9" s="74" t="s">
         <v>60</v>
@@ -2043,7 +2042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="9">
+    <row r="10" spans="1:16" ht="11">
       <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>5320340</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="9">
+    <row r="11" spans="1:16" ht="11">
       <c r="A11" s="19" t="s">
         <v>57</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>792826</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="9">
+    <row r="12" spans="1:16" ht="11">
       <c r="A12" s="19" t="s">
         <v>56</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>6053781</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="9">
+    <row r="13" spans="1:16" ht="11">
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>2913369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="9">
+    <row r="14" spans="1:16" ht="11">
       <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>30398249</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="9">
+    <row r="15" spans="1:16" ht="11">
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>5350708</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="9">
+    <row r="16" spans="1:16" ht="11">
       <c r="A16" s="19" t="s">
         <v>52</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>2867554</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="9">
+    <row r="17" spans="1:16" ht="11">
       <c r="A17" s="43" t="s">
         <v>51</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>1006135</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="9">
+    <row r="18" spans="1:16" ht="11">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>356537</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="9">
+    <row r="19" spans="1:16" ht="11">
       <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>18464506</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="9">
+    <row r="20" spans="1:16" ht="11">
       <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>8829596</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="9">
+    <row r="21" spans="1:16" ht="11">
       <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>1244935</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="9">
+    <row r="22" spans="1:16" ht="11">
       <c r="A22" s="52" t="s">
         <v>46</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>1917677</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="9">
+    <row r="23" spans="1:16" ht="11">
       <c r="A23" s="19" t="s">
         <v>45</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>10587725</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="9">
+    <row r="24" spans="1:16" ht="11">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>6199901</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="9">
+    <row r="25" spans="1:16" ht="11">
       <c r="A25" s="43" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>3787224</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="9">
+    <row r="26" spans="1:16" ht="11">
       <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>2603543</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="9">
+    <row r="27" spans="1:16" ht="11">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>4459685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="9">
+    <row r="28" spans="1:16" ht="11">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>3861204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="9">
+    <row r="29" spans="1:16" ht="11">
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>1121106</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="9">
+    <row r="30" spans="1:16" ht="11">
       <c r="A30" s="52" t="s">
         <v>38</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>4211377</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="9">
+    <row r="31" spans="1:16" ht="11">
       <c r="A31" s="19" t="s">
         <v>37</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>5036686</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="9">
+    <row r="32" spans="1:16" ht="11">
       <c r="A32" s="19" t="s">
         <v>36</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>8453239</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="9">
+    <row r="33" spans="1:16" ht="11">
       <c r="A33" s="43" t="s">
         <v>35</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>5690749</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="9">
+    <row r="34" spans="1:16" ht="11">
       <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>2058975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="9">
+    <row r="35" spans="1:16" ht="11">
       <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>5587022</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="9">
+    <row r="36" spans="1:16" ht="11">
       <c r="A36" s="19" t="s">
         <v>32</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>1952553</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="9">
+    <row r="37" spans="1:16" ht="11">
       <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>1935357</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="9">
+    <row r="38" spans="1:16" ht="11">
       <c r="A38" s="52" t="s">
         <v>30</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>2549357</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="9">
+    <row r="39" spans="1:16" ht="11">
       <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>1357535</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="9">
+    <row r="40" spans="1:16" ht="11">
       <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>6006247</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="9">
+    <row r="41" spans="1:16" ht="11">
       <c r="A41" s="43" t="s">
         <v>27</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>1783151</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="9">
+    <row r="42" spans="1:16" ht="11">
       <c r="A42" s="19" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>11324755</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="9">
+    <row r="43" spans="1:16" ht="11">
       <c r="A43" s="19" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>8739280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="9">
+    <row r="44" spans="1:16" ht="11">
       <c r="A44" s="19" t="s">
         <v>24</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>899083</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="9">
+    <row r="45" spans="1:16" ht="11">
       <c r="A45" s="19" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>10592317</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="9">
+    <row r="46" spans="1:16" ht="11">
       <c r="A46" s="52" t="s">
         <v>22</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>3730247</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="9">
+    <row r="47" spans="1:16" ht="11">
       <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>4095442</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="9">
+    <row r="48" spans="1:16" ht="11">
       <c r="A48" s="19" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>10690187</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="9">
+    <row r="49" spans="1:16" ht="11">
       <c r="A49" s="43" t="s">
         <v>19</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>866625</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="9">
+    <row r="50" spans="1:16" ht="11">
       <c r="A50" s="19" t="s">
         <v>18</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>4561299</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="9">
+    <row r="51" spans="1:16" ht="11">
       <c r="A51" s="19" t="s">
         <v>17</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>1294282</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="9">
+    <row r="52" spans="1:16" ht="11">
       <c r="A52" s="19" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>5855373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="9">
+    <row r="53" spans="1:16" ht="11">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>22419490</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="9">
+    <row r="54" spans="1:16" ht="11">
       <c r="A54" s="52" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>2479604</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="9">
+    <row r="55" spans="1:16" ht="11">
       <c r="A55" s="19" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>607890</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="9">
+    <row r="56" spans="1:16" ht="11">
       <c r="A56" s="19" t="s">
         <v>12</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>7606452</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="9">
+    <row r="57" spans="1:16" ht="11">
       <c r="A57" s="43" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>7257401</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="9">
+    <row r="58" spans="1:16" ht="11">
       <c r="A58" s="19" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>1657362</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="9">
+    <row r="59" spans="1:16" ht="11">
       <c r="A59" s="19" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>5616271</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="9">
+    <row r="60" spans="1:16" ht="11">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>861028</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="9">
+    <row r="61" spans="1:16" ht="11">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>275913237</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="9">
+    <row r="62" spans="1:16" ht="11">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4661,7 +4660,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="39.6" customHeight="1">
+    <row r="63" spans="1:16" ht="39.5" customHeight="1">
       <c r="A63" s="105" t="s">
         <v>6</v>
       </c>
@@ -4734,14 +4733,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6160,14 +6159,14 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6213,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
